--- a/logsearch/data/error_logs/UC1_UC1_新人_11_copy_63.xlsx
+++ b/logsearch/data/error_logs/UC1_UC1_新人_11_copy_63.xlsx
@@ -515,7 +515,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -548,12 +548,12 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_141958_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>「スタート」ボタンをクリックするか、キーボードの「Windowsキー」を押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L2" t="inlineStr"/>
@@ -570,7 +570,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -603,12 +603,12 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>メニューから「設定」アイコン（歯車アイコン）をクリックする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L3" t="inlineStr"/>
@@ -625,7 +625,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -658,12 +658,12 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>「更新とセキュリティ」オプションを選択する</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L4" t="inlineStr"/>
@@ -675,12 +675,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>operation</t>
+          <t>error</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -713,16 +713,24 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/4.png</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>左側のメニューから「Windows Update」をクリックし、Windows Update画面に移動する</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
+          <t>0x80240fff エラー</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Error W</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> エラーの Windows</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -735,7 +743,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -768,12 +776,12 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックする</t>
         </is>
       </c>
       <c r="L6" t="inlineStr"/>
@@ -785,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>error</t>
+          <t>operation</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -823,24 +831,16 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/5.png</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0x80244007 エラー</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Error W</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> エラーの Windows</t>
-        </is>
-      </c>
+          <t>メニューからターミナル(管理者)をクリックする</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -853,7 +853,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/6.png</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>デスクトップ画面の左下にある「スタート」ボタンを右クリックし、メニューから「Windows PowerShell(管理者)(A)」をクリックする</t>
+          <t>ユーザーアカウント制御と表示されているウィンドウが開いたことを確認する</t>
         </is>
       </c>
       <c r="L8" t="inlineStr"/>
@@ -908,7 +908,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -941,12 +941,12 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/7.png</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>「管理者：Windows PowerShell」と表示されているウィンドウが開いたことを確認する</t>
+          <t>PowerShellウィンドウに start-transcript と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L9" t="inlineStr"/>
@@ -963,7 +963,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -996,12 +996,12 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/8.png</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>PowerShellウィンドウに Start-Transcript と入力し、[Enter]キーを押す</t>
+          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L10" t="inlineStr"/>
@@ -1018,7 +1018,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1051,12 +1051,12 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/9.png</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>wuauclt.exe /resetauthorization /detectnow と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L11" t="inlineStr"/>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1106,12 +1106,12 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/10.png</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>netsh winhttp show proxy と入力し、[Enter]キーを押す</t>
+          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
         </is>
       </c>
       <c r="L12" t="inlineStr"/>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1161,12 +1161,12 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/1.png</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>netsh winhttp reset proxy と入力し、[Enter]キーを押す</t>
+          <t>「スタート」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L13" t="inlineStr"/>
@@ -1183,7 +1183,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1216,12 +1216,12 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/2.png</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Windowsの設定画面に戻り、「更新とセキュリティ」→「Windows Update」にアクセスする</t>
+          <t>メニューから「設定」アイコンをクリックする</t>
         </is>
       </c>
       <c r="L14" t="inlineStr"/>
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1271,12 +1271,12 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/3.png</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>「更新プログラムのチェック」ボタンをクリックする</t>
+          <t>左側のメニューからWindows Updateをクリックし、Windows Update画面に移動する</t>
         </is>
       </c>
       <c r="L15" t="inlineStr"/>
@@ -1293,7 +1293,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Haruka Hayashi</t>
+          <t>Momoko Abe</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1326,12 +1326,12 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>bdot20240415_141953/0415_142001_0.png</t>
+          <t>bdot20240415_141954/11.png</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>正常に更新がチェックする</t>
+          <t>「更新プログラムのチェック」ボタンをクリックする</t>
         </is>
       </c>
       <c r="L16" t="inlineStr"/>
